--- a/team_specific_matrix/Ohio St._A.xlsx
+++ b/team_specific_matrix/Ohio St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1708860759493671</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="C2">
-        <v>0.620253164556962</v>
+        <v>0.6456953642384106</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01265822784810127</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1329113924050633</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06329113924050633</v>
+        <v>0.07615894039735099</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.0101010101010101</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0101010101010101</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P3">
-        <v>0.797979797979798</v>
+        <v>0.755</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1818181818181818</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8636363636363636</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.09090909090909091</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05426356589147287</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02325581395348837</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07751937984496124</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2170542635658915</v>
+        <v>0.2570281124497992</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01550387596899225</v>
+        <v>0.0321285140562249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.186046511627907</v>
+        <v>0.1887550200803213</v>
       </c>
       <c r="R6">
-        <v>0.06976744186046512</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="S6">
-        <v>0.3565891472868217</v>
+        <v>0.3132530120481928</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04385964912280702</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07017543859649122</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1140350877192982</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008771929824561403</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2280701754385965</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="R7">
-        <v>0.03508771929824561</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="S7">
-        <v>0.3947368421052632</v>
+        <v>0.4010989010989011</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1047008547008547</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0763888888888889</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1493055555555556</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01041666666666667</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2013888888888889</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="S8">
-        <v>0.3402777777777778</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1132075471698113</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009433962264150943</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03773584905660377</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1415094339622641</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009433962264150943</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1886792452830189</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="R9">
-        <v>0.009433962264150943</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="S9">
-        <v>0.4905660377358491</v>
+        <v>0.4126984126984127</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09955423476968796</v>
+        <v>0.1144200626959248</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02080237741456166</v>
+        <v>0.02037617554858934</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007836990595611285</v>
       </c>
       <c r="F10">
-        <v>0.08618127786032689</v>
+        <v>0.08150470219435736</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1069836552748886</v>
+        <v>0.1183385579937304</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01337295690936107</v>
+        <v>0.0164576802507837</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2317979197622586</v>
+        <v>0.2210031347962382</v>
       </c>
       <c r="R10">
-        <v>0.07726597325408618</v>
+        <v>0.07680250783699059</v>
       </c>
       <c r="S10">
-        <v>0.3640416047548291</v>
+        <v>0.3503134796238245</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1146496815286624</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09554140127388536</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="K11">
-        <v>0.1528662420382166</v>
+        <v>0.1918819188191882</v>
       </c>
       <c r="L11">
-        <v>0.6369426751592356</v>
+        <v>0.5535055350553506</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7788461538461539</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1826923076923077</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.02884615384615385</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009615384615384616</v>
+        <v>0.00641025641025641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.64</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0078125</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.21875</v>
+        <v>0.2060085836909871</v>
       </c>
       <c r="I15">
-        <v>0.0546875</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="J15">
-        <v>0.34375</v>
+        <v>0.3347639484978541</v>
       </c>
       <c r="K15">
-        <v>0.0703125</v>
+        <v>0.06866952789699571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0234375</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="N15">
-        <v>0.0078125</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="O15">
-        <v>0.09375</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1796875</v>
+        <v>0.2145922746781116</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008547008547008548</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2222222222222222</v>
+        <v>0.191588785046729</v>
       </c>
       <c r="I16">
-        <v>0.09401709401709402</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="J16">
-        <v>0.3418803418803419</v>
+        <v>0.3551401869158878</v>
       </c>
       <c r="K16">
-        <v>0.08547008547008547</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0170940170940171</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04273504273504274</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.188034188034188</v>
+        <v>0.1822429906542056</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01063829787234043</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1879432624113475</v>
+        <v>0.1762295081967213</v>
       </c>
       <c r="I17">
-        <v>0.09929078014184398</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J17">
-        <v>0.3829787234042553</v>
+        <v>0.415983606557377</v>
       </c>
       <c r="K17">
-        <v>0.1063829787234043</v>
+        <v>0.08811475409836066</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01418439716312057</v>
+        <v>0.01434426229508197</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06028368794326241</v>
+        <v>0.06352459016393443</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1382978723404255</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04081632653061224</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2755102040816326</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I18">
-        <v>0.06122448979591837</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="J18">
-        <v>0.336734693877551</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K18">
-        <v>0.1020408163265306</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01020408163265306</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09183673469387756</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08163265306122448</v>
+        <v>0.1021505376344086</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01310043668122271</v>
+        <v>0.01827242524916944</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2241630276564774</v>
+        <v>0.2101328903654485</v>
       </c>
       <c r="I19">
-        <v>0.08005822416302766</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="J19">
-        <v>0.3493449781659388</v>
+        <v>0.3612956810631229</v>
       </c>
       <c r="K19">
-        <v>0.1077147016011645</v>
+        <v>0.1029900332225914</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02328966521106259</v>
+        <v>0.02159468438538206</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008305647840531562</v>
       </c>
       <c r="O19">
-        <v>0.07714701601164484</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1251819505094614</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
   </sheetData>
